--- a/AHP Priority Kelompok 6.xlsx
+++ b/AHP Priority Kelompok 6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuliah\Semester 6\RK B\tugasfp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03BC336-F8C1-4B1E-B2F5-D1476DC01F72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C34A75-31BB-4094-A80A-12E8587728FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{960B461E-E88C-41EB-A81E-6506DF36772D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{960B461E-E88C-41EB-A81E-6506DF36772D}"/>
   </bookViews>
   <sheets>
     <sheet name="value" sheetId="1" r:id="rId1"/>
@@ -1411,6 +1411,9 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>'Diagram ROI'!$C$4:$C$16</c:f>
@@ -1529,19 +1532,12 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:dPt>
             <c:idx val="5"/>
-            <c:marker>
-              <c:spPr>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-                    <a:srgbClr val="000000">
-                      <a:alpha val="0"/>
-                    </a:srgbClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </c:spPr>
-            </c:marker>
+            <c:marker/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:ln w="25400">
@@ -2238,7 +2234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22137A63-E84E-4B75-B6AF-561424939B63}">
   <dimension ref="A1:AE50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="97" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="97" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AF30" sqref="AF30"/>
     </sheetView>
   </sheetViews>
@@ -8289,8 +8285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98BAD18C-46AC-4D7E-8ECE-06854BC48528}">
   <dimension ref="B3:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="167" zoomScaleNormal="168" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="L22" zoomScale="366" zoomScaleNormal="168" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
